--- a/tests/data_up_to_S2022T04/raw_ranking_S2022T02.xlsx
+++ b/tests/data_up_to_S2022T04/raw_ranking_S2022T02.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -807,7 +806,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1000 (S2022T01) + 1000 (S2022T02)</t>
+          <t>1000 (S2022T02) + 1000 (S2022T01)</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -2303,7 +2302,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>500 (S2022T01) + 500 (S2022T02)</t>
+          <t>500 (S2022T02) + 500 (S2022T01)</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -2338,7 +2337,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
         <v>1488</v>
@@ -2349,7 +2348,7 @@
         </is>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2393,7 +2392,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2419,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
         <v>1488</v>
@@ -2431,7 +2430,7 @@
         </is>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2474,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2747,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="G28" t="n">
         <v>1420</v>
@@ -2759,13 +2758,13 @@
         </is>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2774,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2786,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,21 +2796,13 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>500 (S2022T02)</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>500 (S2022T01) + 375 (S2022T02)</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Nohara, Andres</t>
+          <t>La Barba, Pablo</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2829,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="G29" t="n">
         <v>1420</v>
@@ -2849,13 +2840,13 @@
         </is>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2864,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2876,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2887,13 +2878,21 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>500 (S2022T02)</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>500 (S2022T01) + 375 (S2022T02)</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>La Barba, Pablo</t>
+          <t>Nohara, Andres</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3575,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
         <v>1386</v>
@@ -3631,7 +3630,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Fernandez, Carlos</t>
+          <t>Rodriguez, Pablo</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3657,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G39" t="n">
         <v>1386</v>
@@ -3713,7 +3712,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Rodriguez, Pablo</t>
+          <t>Fernandez, Carlos</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5551,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="G62" t="n">
         <v>1182</v>
@@ -5607,7 +5606,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5633,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
         <v>1182</v>
@@ -5689,7 +5688,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7035,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1093</v>
@@ -7091,7 +7090,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7117,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1093</v>
@@ -7173,7 +7172,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8019,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="G92" t="n">
         <v>1026</v>
@@ -8075,7 +8074,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Escobar, Esteban</t>
+          <t>Rulfi, Daniel</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8101,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G93" t="n">
         <v>1026</v>
@@ -8157,7 +8156,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Rulfi, Daniel</t>
+          <t>Escobar, Esteban</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8757,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="G101" t="n">
         <v>1000</v>
@@ -8813,7 +8812,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8839,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="G102" t="n">
         <v>1000</v>
@@ -8895,7 +8894,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9003,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G104" t="n">
         <v>1000</v>
@@ -9059,7 +9058,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9085,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1000</v>
@@ -9141,7 +9140,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9219,7 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr">
         <is>
-          <t>250 (S2022T01) + 250 (S2022T02)</t>
+          <t>250 (S2022T02) + 250 (S2022T01)</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -10238,7 +10237,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="G119" t="n">
         <v>960</v>
@@ -10249,13 +10248,13 @@
         </is>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -10264,48 +10263,36 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>250 (S2022T02)</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>125 (S2022T02) + 125 (S2022T01)</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>250 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>Goy, Gerardo</t>
+          <t>Garioni, Nicolas</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10319,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>171</v>
+        <v>319</v>
       </c>
       <c r="G120" t="n">
         <v>960</v>
@@ -10343,13 +10330,13 @@
         </is>
       </c>
       <c r="I120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -10358,36 +10345,48 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
       </c>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>250 (S2022T02)</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>125 (S2022T02) + 125 (S2022T01)</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>250 (S2022T01)</t>
+        </is>
+      </c>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>Garioni, Nicolas</t>
+          <t>Goy, Gerardo</t>
         </is>
       </c>
     </row>
@@ -11086,7 +11085,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="G129" t="n">
         <v>916</v>
@@ -11115,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -11127,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
@@ -11136,16 +11135,12 @@
         <v>0</v>
       </c>
       <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr">
-        <is>
-          <t>125 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>Godano, Franco</t>
+          <t>Gentile, Leonardo</t>
         </is>
       </c>
     </row>
@@ -11172,7 +11167,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="G130" t="n">
         <v>916</v>
@@ -11201,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -11213,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>0</v>
@@ -11222,12 +11217,16 @@
         <v>0</v>
       </c>
       <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>125 (S2022T01)</t>
+        </is>
+      </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>Gentile, Leonardo</t>
+          <t>Godano, Franco</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11835,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G138" t="n">
         <v>866</v>
@@ -11891,7 +11890,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>Miner, Alberto</t>
+          <t>Tenca, Javier</t>
         </is>
       </c>
     </row>
@@ -11918,7 +11917,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G139" t="n">
         <v>866</v>
@@ -11973,7 +11972,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>Tenca, Javier</t>
+          <t>Miner, Alberto</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12749,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G149" t="n">
         <v>779</v>
@@ -12805,7 +12804,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>Fucks, Alyssa</t>
+          <t>Godoy, Franco</t>
         </is>
       </c>
     </row>
@@ -12832,7 +12831,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G150" t="n">
         <v>779</v>
@@ -12887,7 +12886,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>Godoy, Franco</t>
+          <t>Fucks, Alyssa</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13241,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="G155" t="n">
         <v>768</v>
@@ -13297,7 +13296,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>Rodriguez, Jorge</t>
+          <t>Brian, Martin</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13323,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G156" t="n">
         <v>768</v>
@@ -13379,7 +13378,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>Brian, Martin</t>
+          <t>Rodriguez, Jorge</t>
         </is>
       </c>
     </row>
@@ -14480,7 +14479,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G170" t="n">
         <v>726</v>
@@ -14535,7 +14534,7 @@
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>Aguirre, Gabriel</t>
+          <t>Martinez, Dylan</t>
         </is>
       </c>
     </row>
@@ -14562,7 +14561,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G171" t="n">
         <v>726</v>
@@ -14617,7 +14616,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>Martinez, Dylan</t>
+          <t>Aguirre, Gabriel</t>
         </is>
       </c>
     </row>
@@ -16120,7 +16119,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="G190" t="n">
         <v>693</v>
@@ -16175,7 +16174,7 @@
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>Michea, Ignacio</t>
+          <t>Jose</t>
         </is>
       </c>
     </row>
@@ -16202,7 +16201,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G191" t="n">
         <v>693</v>
@@ -16257,7 +16256,7 @@
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Michea, Ignacio</t>
         </is>
       </c>
     </row>
@@ -16448,7 +16447,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="G194" t="n">
         <v>680</v>
@@ -16503,7 +16502,7 @@
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Delgado, Pablo</t>
         </is>
       </c>
     </row>
@@ -16530,7 +16529,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="G195" t="n">
         <v>680</v>
@@ -16585,7 +16584,7 @@
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>Delgado, Pablo</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
     </row>
@@ -16612,7 +16611,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G196" t="n">
         <v>680</v>
@@ -16667,7 +16666,7 @@
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -16694,7 +16693,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G197" t="n">
         <v>680</v>
@@ -16749,7 +16748,7 @@
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16857,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G199" t="n">
         <v>676</v>
@@ -16869,7 +16868,7 @@
         </is>
       </c>
       <c r="I199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -16878,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
@@ -16890,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
@@ -16902,22 +16901,18 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U199" t="n">
         <v>0</v>
       </c>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr">
-        <is>
-          <t>65 (S2022T02) + 65 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="X199" t="inlineStr"/>
       <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>Savino, Leandro</t>
+          <t>Kranczuk, German</t>
         </is>
       </c>
     </row>
@@ -16944,7 +16939,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G200" t="n">
         <v>676</v>
@@ -16955,7 +16950,7 @@
         </is>
       </c>
       <c r="I200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -16964,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M200" t="n">
         <v>0</v>
@@ -16976,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="P200" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
@@ -16988,18 +16983,22 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
       </c>
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>65 (S2022T02) + 65 (S2022T01)</t>
+        </is>
+      </c>
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>Kranczuk, German</t>
+          <t>Savino, Leandro</t>
         </is>
       </c>
     </row>
@@ -18436,7 +18435,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G218" t="n">
         <v>600</v>
@@ -18491,7 +18490,7 @@
       <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>Pilotti, Paz</t>
+          <t>Morello, Manuel</t>
         </is>
       </c>
     </row>
@@ -18518,7 +18517,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G219" t="n">
         <v>600</v>
@@ -18573,7 +18572,7 @@
       <c r="Y219" t="inlineStr"/>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>Morello, Manuel</t>
+          <t>Pilotti, Paz</t>
         </is>
       </c>
     </row>
@@ -18764,7 +18763,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G222" t="n">
         <v>588</v>
@@ -18775,7 +18774,7 @@
         </is>
       </c>
       <c r="I222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -18819,7 +18818,7 @@
       <c r="Y222" t="inlineStr"/>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>Bracco, Fernando</t>
+          <t>Dallinger, Humberto</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18845,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G223" t="n">
         <v>588</v>
@@ -18857,7 +18856,7 @@
         </is>
       </c>
       <c r="I223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -18901,7 +18900,7 @@
       <c r="Y223" t="inlineStr"/>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>Dallinger, Humberto</t>
+          <t>Bracco, Fernando</t>
         </is>
       </c>
     </row>
@@ -20432,7 +20431,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G242" t="n">
         <v>480</v>
@@ -20487,7 +20486,7 @@
       <c r="Y242" t="inlineStr"/>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -20514,7 +20513,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G243" t="n">
         <v>480</v>
@@ -20569,7 +20568,7 @@
       <c r="Y243" t="inlineStr"/>
       <c r="Z243" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -20596,7 +20595,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G244" t="n">
         <v>470</v>
@@ -20607,7 +20606,7 @@
         </is>
       </c>
       <c r="I244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -20651,7 +20650,7 @@
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
         </is>
       </c>
     </row>
@@ -20678,7 +20677,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G245" t="n">
         <v>470</v>
@@ -20689,7 +20688,7 @@
         </is>
       </c>
       <c r="I245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -20733,7 +20732,7 @@
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -21256,7 +21255,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G252" t="n">
         <v>416</v>
@@ -21311,7 +21310,7 @@
       <c r="Y252" t="inlineStr"/>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -21338,7 +21337,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G253" t="n">
         <v>416</v>
@@ -21393,7 +21392,7 @@
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
